--- a/refrigerants.xlsx
+++ b/refrigerants.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexa\OneDrive - Imperial College London\Work\Final Year\Labs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usmaan Hafiz\Google Drive\University\Year 4\Research Project\machine-learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="582" documentId="8_{76EC3916-F2B6-4F6A-95B6-810DD24BBACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4F25ED98-65DC-4E07-B4BD-9B1BBC4FCDD9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF139C0-B3C2-4A42-8F30-70E863CE57EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0EA64E68-24A5-45CB-8C8E-71B3A777C8DE}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{0EA64E68-24A5-45CB-8C8E-71B3A777C8DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="All ref" sheetId="3" r:id="rId3"/>
     <sheet name="Edited data" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3760,23 +3760,23 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.26953125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3814,7 +3814,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3851,7 +3851,7 @@
         <v>0.16886999999999999</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3889,7 +3889,7 @@
         <v>0.15060000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4022,7 +4022,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4054,7 +4054,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4118,7 +4118,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4214,7 +4214,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4246,7 +4246,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4278,7 +4278,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -4342,7 +4342,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -4374,7 +4374,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -4406,7 +4406,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -4473,7 +4473,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4508,7 +4508,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4704,7 +4704,7 @@
       <c r="I28" s="1"/>
       <c r="K28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4731,7 +4731,7 @@
         <v>3044</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="I31" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4765,7 +4765,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
         <v>97</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B33" t="s">
         <v>99</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B34" t="s">
         <v>100</v>
       </c>
@@ -4851,7 +4851,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.35">
       <c r="I35" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4861,7 +4861,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.35">
       <c r="I36" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -4871,7 +4871,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.35">
       <c r="I37" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4881,7 +4881,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.35">
       <c r="I38" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -4914,9 +4914,9 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>80</v>
       </c>
@@ -4924,7 +4924,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>91</v>
       </c>
@@ -4938,7 +4938,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B3">
         <v>310</v>
       </c>
@@ -4952,7 +4952,7 @@
         <v>1230.3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B4">
         <v>310</v>
       </c>
@@ -4966,7 +4966,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B5">
         <v>315</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>1312.5</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B6">
         <v>320</v>
       </c>
@@ -4994,7 +4994,7 @@
         <v>1313.7</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B7">
         <v>325</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>1476.6</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>330</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>1476.8</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>335</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>1477.7</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>340</v>
       </c>
@@ -5050,7 +5050,7 @@
         <v>1516.1</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>345</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>345</v>
       </c>
@@ -5078,7 +5078,7 @@
         <v>1727.2</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>350</v>
       </c>
@@ -5092,7 +5092,7 @@
         <v>1727.4</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>355</v>
       </c>
@@ -5106,7 +5106,7 @@
         <v>1963.1</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>360</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>1963</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>360</v>
       </c>
@@ -5134,7 +5134,7 @@
         <v>2222.1</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>365</v>
       </c>
@@ -5148,7 +5148,7 @@
         <v>2388.1999999999998</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>370</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>2504.6999999999998</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B19">
         <v>373</v>
       </c>
@@ -5176,7 +5176,7 @@
         <v>2687.8</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B20">
         <v>375</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>2815.3</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B21">
         <v>375</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>3015.4</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
       <c r="B22">
         <v>376.93</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>3155</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D23">
         <v>318</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>3373.3</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D24">
         <v>320</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>3525.7</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D25">
         <v>323</v>
       </c>
@@ -5242,7 +5242,7 @@
         <v>3764.5</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D26">
         <v>325</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>3931.3</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D27">
         <v>328</v>
       </c>
@@ -5258,7 +5258,7 @@
         <v>4194.2</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D28">
         <v>330</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>4377.7</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
       <c r="D29">
         <v>331.73</v>
       </c>
@@ -5288,55 +5288,55 @@
       <selection activeCell="G23" sqref="A1:AU367"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="37.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="19" max="20" width="29" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="42.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="48" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="29" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="53.85546875" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="53.81640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="48" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="29" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="15" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="8" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="17" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="45" max="46" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="45" max="46" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>107</v>
       </c>
@@ -5356,7 +5356,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>113</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:47" x14ac:dyDescent="0.35">
       <c r="H3" t="s">
         <v>132</v>
       </c>
@@ -5513,7 +5513,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>146</v>
       </c>
@@ -5641,7 +5641,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>146</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>146</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>146</v>
       </c>
@@ -6084,7 +6084,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>146</v>
       </c>
@@ -6218,7 +6218,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>146</v>
       </c>
@@ -6352,7 +6352,7 @@
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -6453,7 +6453,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>146</v>
       </c>
@@ -6491,7 +6491,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>146</v>
       </c>
@@ -6529,7 +6529,7 @@
         <v>20.8</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>146</v>
       </c>
@@ -6561,7 +6561,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>188</v>
       </c>
@@ -6686,7 +6686,7 @@
         <v>74.5</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>191</v>
       </c>
@@ -6802,7 +6802,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>195</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>200</v>
       </c>
@@ -7058,7 +7058,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>203</v>
       </c>
@@ -7174,7 +7174,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>206</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>209</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>215</v>
       </c>
@@ -7519,7 +7519,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>218</v>
       </c>
@@ -7635,7 +7635,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>221</v>
       </c>
@@ -7709,7 +7709,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>224</v>
       </c>
@@ -7831,7 +7831,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>227</v>
       </c>
@@ -7947,7 +7947,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>230</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>233</v>
       </c>
@@ -8191,7 +8191,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
         <v>236</v>
       </c>
@@ -8319,7 +8319,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>239</v>
       </c>
@@ -8429,7 +8429,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>239</v>
       </c>
@@ -8539,7 +8539,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>239</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>1.68</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>239</v>
       </c>
@@ -8762,7 +8762,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>239</v>
       </c>
@@ -8794,7 +8794,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>254</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>254</v>
       </c>
@@ -9059,7 +9059,7 @@
         <v>7.6</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>254</v>
       </c>
@@ -9094,7 +9094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>254</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>254</v>
       </c>
@@ -9152,7 +9152,7 @@
         <v>25.1</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>254</v>
       </c>
@@ -9181,7 +9181,7 @@
         <v>21.7</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>239</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>239</v>
       </c>
@@ -9233,7 +9233,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>239</v>
       </c>
@@ -9265,7 +9265,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>239</v>
       </c>
@@ -9291,7 +9291,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>239</v>
       </c>
@@ -9323,7 +9323,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>282</v>
       </c>
@@ -9451,7 +9451,7 @@
         <v>1038.1500000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>282</v>
       </c>
@@ -9585,7 +9585,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>282</v>
       </c>
@@ -9710,7 +9710,7 @@
         <v>7.1</v>
       </c>
     </row>
-    <row r="49" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>282</v>
       </c>
@@ -9838,7 +9838,7 @@
         <v>1006.15</v>
       </c>
     </row>
-    <row r="50" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>282</v>
       </c>
@@ -9864,7 +9864,7 @@
         <v>14900</v>
       </c>
     </row>
-    <row r="51" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>282</v>
       </c>
@@ -9899,7 +9899,7 @@
         <v>903.15</v>
       </c>
     </row>
-    <row r="52" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>282</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>1016.15</v>
       </c>
     </row>
-    <row r="53" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>282</v>
       </c>
@@ -10053,7 +10053,7 @@
         <v>5690</v>
       </c>
     </row>
-    <row r="54" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>282</v>
       </c>
@@ -10088,7 +10088,7 @@
         <v>24.4</v>
       </c>
     </row>
-    <row r="55" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>282</v>
       </c>
@@ -10222,7 +10222,7 @@
         <v>18.8</v>
       </c>
     </row>
-    <row r="56" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>282</v>
       </c>
@@ -10248,7 +10248,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="57" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>282</v>
       </c>
@@ -10346,7 +10346,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="58" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>282</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>21.8</v>
       </c>
     </row>
-    <row r="59" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>282</v>
       </c>
@@ -10515,7 +10515,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="60" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>282</v>
       </c>
@@ -10646,7 +10646,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>282</v>
       </c>
@@ -10675,7 +10675,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="62" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>282</v>
       </c>
@@ -10698,7 +10698,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>282</v>
       </c>
@@ -10823,7 +10823,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>282</v>
       </c>
@@ -10849,7 +10849,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>282</v>
       </c>
@@ -10872,7 +10872,7 @@
         <v>4550</v>
       </c>
     </row>
-    <row r="66" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>282</v>
       </c>
@@ -10898,7 +10898,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="67" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>282</v>
       </c>
@@ -11014,7 +11014,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>282</v>
       </c>
@@ -11139,7 +11139,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="69" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>282</v>
       </c>
@@ -11165,7 +11165,7 @@
         <v>988</v>
       </c>
     </row>
-    <row r="70" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>282</v>
       </c>
@@ -11293,7 +11293,7 @@
         <v>14.8</v>
       </c>
     </row>
-    <row r="71" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>282</v>
       </c>
@@ -11319,7 +11319,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="72" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>282</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="73" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>282</v>
       </c>
@@ -11380,7 +11380,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="74" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>282</v>
       </c>
@@ -11508,7 +11508,7 @@
         <v>977.15</v>
       </c>
     </row>
-    <row r="75" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>282</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="76" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>282</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="77" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>282</v>
       </c>
@@ -11580,7 +11580,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="78" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>282</v>
       </c>
@@ -11606,7 +11606,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="79" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>282</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="80" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>282</v>
       </c>
@@ -11652,7 +11652,7 @@
         <v>98.066999999999993</v>
       </c>
     </row>
-    <row r="81" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>282</v>
       </c>
@@ -11675,7 +11675,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="82" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>282</v>
       </c>
@@ -11695,7 +11695,7 @@
         <v>80.076999999999998</v>
       </c>
     </row>
-    <row r="83" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>282</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="84" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>282</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>62.085999999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>282</v>
       </c>
@@ -11761,7 +11761,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="86" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>282</v>
       </c>
@@ -11781,7 +11781,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="87" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>282</v>
       </c>
@@ -11801,7 +11801,7 @@
         <v>184.1</v>
       </c>
     </row>
-    <row r="88" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>282</v>
       </c>
@@ -11824,7 +11824,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="89" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>282</v>
       </c>
@@ -11850,7 +11850,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="90" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>282</v>
       </c>
@@ -11975,7 +11975,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="91" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>239</v>
       </c>
@@ -12088,7 +12088,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="92" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>239</v>
       </c>
@@ -12201,7 +12201,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="93" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>239</v>
       </c>
@@ -12314,7 +12314,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="94" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>239</v>
       </c>
@@ -12427,7 +12427,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>239</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>239</v>
       </c>
@@ -12653,7 +12653,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>239</v>
       </c>
@@ -12766,7 +12766,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="98" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>239</v>
       </c>
@@ -12879,7 +12879,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>239</v>
       </c>
@@ -12992,7 +12992,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>239</v>
       </c>
@@ -13108,7 +13108,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="101" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>239</v>
       </c>
@@ -13221,7 +13221,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="102" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>239</v>
       </c>
@@ -13250,7 +13250,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="103" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>239</v>
       </c>
@@ -13270,7 +13270,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="104" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>239</v>
       </c>
@@ -13383,7 +13383,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="105" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>239</v>
       </c>
@@ -13403,7 +13403,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="106" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>239</v>
       </c>
@@ -13516,7 +13516,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="107" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>239</v>
       </c>
@@ -13629,7 +13629,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="108" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>239</v>
       </c>
@@ -13742,7 +13742,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="109" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>239</v>
       </c>
@@ -13855,7 +13855,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="110" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>239</v>
       </c>
@@ -13968,7 +13968,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="111" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>239</v>
       </c>
@@ -14081,7 +14081,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="112" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>239</v>
       </c>
@@ -14104,7 +14104,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="113" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>239</v>
       </c>
@@ -14217,7 +14217,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="114" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>239</v>
       </c>
@@ -14330,7 +14330,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="115" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>239</v>
       </c>
@@ -14443,7 +14443,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="116" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>239</v>
       </c>
@@ -14556,7 +14556,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="117" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>239</v>
       </c>
@@ -14669,7 +14669,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="118" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>239</v>
       </c>
@@ -14782,7 +14782,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="119" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>239</v>
       </c>
@@ -14898,7 +14898,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="120" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>239</v>
       </c>
@@ -15011,7 +15011,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="121" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>239</v>
       </c>
@@ -15127,7 +15127,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="122" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>239</v>
       </c>
@@ -15240,7 +15240,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="123" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>239</v>
       </c>
@@ -15356,7 +15356,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="124" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>239</v>
       </c>
@@ -15469,7 +15469,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="125" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>239</v>
       </c>
@@ -15585,7 +15585,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="126" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>239</v>
       </c>
@@ -15617,7 +15617,7 @@
         <v>10.4</v>
       </c>
     </row>
-    <row r="127" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>239</v>
       </c>
@@ -15649,7 +15649,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="128" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>239</v>
       </c>
@@ -15762,7 +15762,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="129" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>239</v>
       </c>
@@ -15875,7 +15875,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="130" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>239</v>
       </c>
@@ -15988,7 +15988,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="131" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>511</v>
       </c>
@@ -16113,7 +16113,7 @@
         <v>827.15</v>
       </c>
     </row>
-    <row r="132" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>511</v>
       </c>
@@ -16244,7 +16244,7 @@
         <v>905.15</v>
       </c>
     </row>
-    <row r="133" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>511</v>
       </c>
@@ -16270,7 +16270,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="134" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>511</v>
       </c>
@@ -16296,7 +16296,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="135" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>511</v>
       </c>
@@ -16319,7 +16319,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="136" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>511</v>
       </c>
@@ -16348,7 +16348,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="137" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>511</v>
       </c>
@@ -16377,7 +16377,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="138" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>511</v>
       </c>
@@ -16397,7 +16397,7 @@
         <v>169.38419999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>511</v>
       </c>
@@ -16528,7 +16528,7 @@
         <v>1003.15</v>
       </c>
     </row>
-    <row r="140" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>511</v>
       </c>
@@ -16560,7 +16560,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="141" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>511</v>
       </c>
@@ -16589,7 +16589,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="142" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>511</v>
       </c>
@@ -16714,7 +16714,7 @@
         <v>910.15</v>
       </c>
     </row>
-    <row r="143" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>511</v>
       </c>
@@ -16749,7 +16749,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="144" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>511</v>
       </c>
@@ -16772,7 +16772,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="145" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>511</v>
       </c>
@@ -16795,7 +16795,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="146" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>511</v>
       </c>
@@ -16821,7 +16821,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="147" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>511</v>
       </c>
@@ -16844,7 +16844,7 @@
         <v>2E-3</v>
       </c>
     </row>
-    <row r="148" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>511</v>
       </c>
@@ -16867,7 +16867,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="149" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>511</v>
       </c>
@@ -16896,7 +16896,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="150" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>511</v>
       </c>
@@ -16925,7 +16925,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="151" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>511</v>
       </c>
@@ -16948,7 +16948,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>511</v>
       </c>
@@ -16977,7 +16977,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="153" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>511</v>
       </c>
@@ -17000,7 +17000,7 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>511</v>
       </c>
@@ -17029,7 +17029,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="155" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>511</v>
       </c>
@@ -17058,7 +17058,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="156" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>511</v>
       </c>
@@ -17192,7 +17192,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="157" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>511</v>
       </c>
@@ -17221,7 +17221,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="158" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>511</v>
       </c>
@@ -17253,7 +17253,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="159" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>511</v>
       </c>
@@ -17387,7 +17387,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="160" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>511</v>
       </c>
@@ -17413,7 +17413,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="161" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>511</v>
       </c>
@@ -17439,7 +17439,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="162" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>511</v>
       </c>
@@ -17459,7 +17459,7 @@
         <v>268.7</v>
       </c>
     </row>
-    <row r="163" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>511</v>
       </c>
@@ -17479,7 +17479,7 @@
         <v>252.3</v>
       </c>
     </row>
-    <row r="164" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>511</v>
       </c>
@@ -17499,7 +17499,7 @@
         <v>252.3</v>
       </c>
     </row>
-    <row r="165" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>511</v>
       </c>
@@ -17519,7 +17519,7 @@
         <v>235.8</v>
       </c>
     </row>
-    <row r="166" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>511</v>
       </c>
@@ -17539,7 +17539,7 @@
         <v>235.8</v>
       </c>
     </row>
-    <row r="167" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>511</v>
       </c>
@@ -17559,7 +17559,7 @@
         <v>235.8</v>
       </c>
     </row>
-    <row r="168" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>511</v>
       </c>
@@ -17579,7 +17579,7 @@
         <v>219.4</v>
       </c>
     </row>
-    <row r="169" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>511</v>
       </c>
@@ -17599,7 +17599,7 @@
         <v>219.4</v>
       </c>
     </row>
-    <row r="170" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>511</v>
       </c>
@@ -17619,7 +17619,7 @@
         <v>219.4</v>
       </c>
     </row>
-    <row r="171" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>511</v>
       </c>
@@ -17639,7 +17639,7 @@
         <v>219.4</v>
       </c>
     </row>
-    <row r="172" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>511</v>
       </c>
@@ -17659,7 +17659,7 @@
         <v>202.9</v>
       </c>
     </row>
-    <row r="173" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>511</v>
       </c>
@@ -17679,7 +17679,7 @@
         <v>202.9</v>
       </c>
     </row>
-    <row r="174" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>511</v>
       </c>
@@ -17702,7 +17702,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>511</v>
       </c>
@@ -17722,7 +17722,7 @@
         <v>202.9</v>
       </c>
     </row>
-    <row r="176" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>511</v>
       </c>
@@ -17751,7 +17751,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="177" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>511</v>
       </c>
@@ -17780,7 +17780,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="178" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>511</v>
       </c>
@@ -17803,7 +17803,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="179" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>511</v>
       </c>
@@ -17826,7 +17826,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>511</v>
       </c>
@@ -17846,7 +17846,7 @@
         <v>202.9</v>
       </c>
     </row>
-    <row r="181" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>511</v>
       </c>
@@ -17866,7 +17866,7 @@
         <v>202.9</v>
       </c>
     </row>
-    <row r="182" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>511</v>
       </c>
@@ -17889,7 +17889,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="183" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>511</v>
       </c>
@@ -17912,7 +17912,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="184" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>511</v>
       </c>
@@ -17935,7 +17935,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="185" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>511</v>
       </c>
@@ -17958,7 +17958,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="186" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>511</v>
       </c>
@@ -17981,7 +17981,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="187" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>511</v>
       </c>
@@ -18004,7 +18004,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="188" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>511</v>
       </c>
@@ -18024,7 +18024,7 @@
         <v>234.3</v>
       </c>
     </row>
-    <row r="189" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>511</v>
       </c>
@@ -18044,7 +18044,7 @@
         <v>217.9</v>
       </c>
     </row>
-    <row r="190" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>511</v>
       </c>
@@ -18064,7 +18064,7 @@
         <v>217.9</v>
       </c>
     </row>
-    <row r="191" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>511</v>
       </c>
@@ -18084,7 +18084,7 @@
         <v>217.9</v>
       </c>
     </row>
-    <row r="192" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>511</v>
       </c>
@@ -18104,7 +18104,7 @@
         <v>201.4</v>
       </c>
     </row>
-    <row r="193" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>511</v>
       </c>
@@ -18124,7 +18124,7 @@
         <v>201.4</v>
       </c>
     </row>
-    <row r="194" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>511</v>
       </c>
@@ -18144,7 +18144,7 @@
         <v>201.4</v>
       </c>
     </row>
-    <row r="195" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>511</v>
       </c>
@@ -18164,7 +18164,7 @@
         <v>201.4</v>
       </c>
     </row>
-    <row r="196" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>511</v>
       </c>
@@ -18187,7 +18187,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="197" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>511</v>
       </c>
@@ -18207,7 +18207,7 @@
         <v>184.9</v>
       </c>
     </row>
-    <row r="198" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>511</v>
       </c>
@@ -18227,7 +18227,7 @@
         <v>184.9</v>
       </c>
     </row>
-    <row r="199" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>511</v>
       </c>
@@ -18247,7 +18247,7 @@
         <v>184.9</v>
       </c>
     </row>
-    <row r="200" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>511</v>
       </c>
@@ -18267,7 +18267,7 @@
         <v>184.9</v>
       </c>
     </row>
-    <row r="201" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>511</v>
       </c>
@@ -18287,7 +18287,7 @@
         <v>184.9</v>
       </c>
     </row>
-    <row r="202" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>511</v>
       </c>
@@ -18307,7 +18307,7 @@
         <v>184.9</v>
       </c>
     </row>
-    <row r="203" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>511</v>
       </c>
@@ -18330,7 +18330,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="204" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>511</v>
       </c>
@@ -18350,7 +18350,7 @@
         <v>184.9</v>
       </c>
     </row>
-    <row r="205" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>511</v>
       </c>
@@ -18370,7 +18370,7 @@
         <v>184.9</v>
       </c>
     </row>
-    <row r="206" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>511</v>
       </c>
@@ -18393,7 +18393,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="207" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>511</v>
       </c>
@@ -18413,7 +18413,7 @@
         <v>184.9</v>
       </c>
     </row>
-    <row r="208" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>511</v>
       </c>
@@ -18433,7 +18433,7 @@
         <v>184.9</v>
       </c>
     </row>
-    <row r="209" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>511</v>
       </c>
@@ -18456,7 +18456,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="210" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>511</v>
       </c>
@@ -18485,7 +18485,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="211" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>511</v>
       </c>
@@ -18508,7 +18508,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="212" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>511</v>
       </c>
@@ -18531,7 +18531,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="213" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>511</v>
       </c>
@@ -18560,7 +18560,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="214" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>511</v>
       </c>
@@ -18583,7 +18583,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="215" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>511</v>
       </c>
@@ -18603,7 +18603,7 @@
         <v>199.86510000000001</v>
       </c>
     </row>
-    <row r="216" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>511</v>
       </c>
@@ -18626,7 +18626,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="217" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>511</v>
       </c>
@@ -18649,7 +18649,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="218" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>511</v>
       </c>
@@ -18669,7 +18669,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="219" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>511</v>
       </c>
@@ -18689,7 +18689,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="220" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>511</v>
       </c>
@@ -18709,7 +18709,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="221" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>511</v>
       </c>
@@ -18732,7 +18732,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="222" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>511</v>
       </c>
@@ -18752,7 +18752,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="223" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>511</v>
       </c>
@@ -18772,7 +18772,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="224" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>511</v>
       </c>
@@ -18795,7 +18795,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>511</v>
       </c>
@@ -18815,7 +18815,7 @@
         <v>150.5</v>
       </c>
     </row>
-    <row r="226" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>511</v>
       </c>
@@ -18835,7 +18835,7 @@
         <v>150.5</v>
       </c>
     </row>
-    <row r="227" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>511</v>
       </c>
@@ -18858,7 +18858,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="228" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>511</v>
       </c>
@@ -18878,7 +18878,7 @@
         <v>150.5</v>
       </c>
     </row>
-    <row r="229" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>511</v>
       </c>
@@ -18898,7 +18898,7 @@
         <v>150.5</v>
       </c>
     </row>
-    <row r="230" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>511</v>
       </c>
@@ -18918,7 +18918,7 @@
         <v>150.5</v>
       </c>
     </row>
-    <row r="231" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>511</v>
       </c>
@@ -18938,7 +18938,7 @@
         <v>150.5</v>
       </c>
     </row>
-    <row r="232" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>511</v>
       </c>
@@ -18958,7 +18958,7 @@
         <v>150.5</v>
       </c>
     </row>
-    <row r="233" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>511</v>
       </c>
@@ -18978,7 +18978,7 @@
         <v>150.5</v>
       </c>
     </row>
-    <row r="234" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>511</v>
       </c>
@@ -18998,7 +18998,7 @@
         <v>150.5</v>
       </c>
     </row>
-    <row r="235" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>511</v>
       </c>
@@ -19018,7 +19018,7 @@
         <v>150.5</v>
       </c>
     </row>
-    <row r="236" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>511</v>
       </c>
@@ -19038,7 +19038,7 @@
         <v>150.5</v>
       </c>
     </row>
-    <row r="237" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>511</v>
       </c>
@@ -19061,7 +19061,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="238" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>511</v>
       </c>
@@ -19084,7 +19084,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="239" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>511</v>
       </c>
@@ -19104,7 +19104,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="240" spans="1:40" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:40" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>511</v>
       </c>
@@ -19124,7 +19124,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="241" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>511</v>
       </c>
@@ -19144,7 +19144,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="242" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>511</v>
       </c>
@@ -19164,7 +19164,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="243" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>511</v>
       </c>
@@ -19187,7 +19187,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="244" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>511</v>
       </c>
@@ -19207,7 +19207,7 @@
         <v>132.5</v>
       </c>
     </row>
-    <row r="245" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>511</v>
       </c>
@@ -19227,7 +19227,7 @@
         <v>132.5</v>
       </c>
     </row>
-    <row r="246" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>511</v>
       </c>
@@ -19247,7 +19247,7 @@
         <v>132.5</v>
       </c>
     </row>
-    <row r="247" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>511</v>
       </c>
@@ -19267,7 +19267,7 @@
         <v>132.5</v>
       </c>
     </row>
-    <row r="248" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>511</v>
       </c>
@@ -19287,7 +19287,7 @@
         <v>132.5</v>
       </c>
     </row>
-    <row r="249" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>511</v>
       </c>
@@ -19307,7 +19307,7 @@
         <v>132.5</v>
       </c>
     </row>
-    <row r="250" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>511</v>
       </c>
@@ -19327,7 +19327,7 @@
         <v>132.5</v>
       </c>
     </row>
-    <row r="251" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>511</v>
       </c>
@@ -19347,7 +19347,7 @@
         <v>132.5</v>
       </c>
     </row>
-    <row r="252" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>511</v>
       </c>
@@ -19367,7 +19367,7 @@
         <v>132.512</v>
       </c>
     </row>
-    <row r="253" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>511</v>
       </c>
@@ -19387,7 +19387,7 @@
         <v>132.5</v>
       </c>
     </row>
-    <row r="254" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>511</v>
       </c>
@@ -19410,7 +19410,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="255" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>511</v>
       </c>
@@ -19436,7 +19436,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="256" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:43" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>511</v>
       </c>
@@ -19459,7 +19459,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="257" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>511</v>
       </c>
@@ -19479,7 +19479,7 @@
         <v>114.5</v>
       </c>
     </row>
-    <row r="258" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>511</v>
       </c>
@@ -19499,7 +19499,7 @@
         <v>114.5</v>
       </c>
     </row>
-    <row r="259" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>511</v>
       </c>
@@ -19519,7 +19519,7 @@
         <v>114.5</v>
       </c>
     </row>
-    <row r="260" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>511</v>
       </c>
@@ -19542,7 +19542,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="261" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>511</v>
       </c>
@@ -19562,7 +19562,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="262" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>511</v>
       </c>
@@ -19582,7 +19582,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="263" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>511</v>
       </c>
@@ -19602,7 +19602,7 @@
         <v>96.5</v>
       </c>
     </row>
-    <row r="264" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>239</v>
       </c>
@@ -19718,7 +19718,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="265" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>239</v>
       </c>
@@ -19834,7 +19834,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="266" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>239</v>
       </c>
@@ -19950,7 +19950,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="267" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>239</v>
       </c>
@@ -20066,7 +20066,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="268" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>239</v>
       </c>
@@ -20182,7 +20182,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="269" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>239</v>
       </c>
@@ -20295,7 +20295,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="270" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>239</v>
       </c>
@@ -20408,7 +20408,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="271" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>239</v>
       </c>
@@ -20521,7 +20521,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="272" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>239</v>
       </c>
@@ -20640,7 +20640,7 @@
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="273" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>239</v>
       </c>
@@ -20666,7 +20666,7 @@
         <v>1893</v>
       </c>
     </row>
-    <row r="274" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>239</v>
       </c>
@@ -20782,7 +20782,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="275" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>239</v>
       </c>
@@ -20898,7 +20898,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="276" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>239</v>
       </c>
@@ -21014,7 +21014,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="277" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>239</v>
       </c>
@@ -21130,7 +21130,7 @@
         <v>8.6999999999999993</v>
       </c>
     </row>
-    <row r="278" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>239</v>
       </c>
@@ -21243,7 +21243,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="279" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>239</v>
       </c>
@@ -21359,7 +21359,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="280" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>239</v>
       </c>
@@ -21478,7 +21478,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="281" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>239</v>
       </c>
@@ -21594,7 +21594,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="282" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>239</v>
       </c>
@@ -21710,7 +21710,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="283" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>239</v>
       </c>
@@ -21829,7 +21829,7 @@
         <v>8.9</v>
       </c>
     </row>
-    <row r="284" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>239</v>
       </c>
@@ -21945,7 +21945,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="285" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>239</v>
       </c>
@@ -22061,7 +22061,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="286" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>239</v>
       </c>
@@ -22174,7 +22174,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="287" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>239</v>
       </c>
@@ -22206,7 +22206,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="288" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>239</v>
       </c>
@@ -22235,7 +22235,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="289" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>239</v>
       </c>
@@ -22351,7 +22351,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="290" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>881</v>
       </c>
@@ -22482,7 +22482,7 @@
         <v>1023.15</v>
       </c>
     </row>
-    <row r="291" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>881</v>
       </c>
@@ -22613,7 +22613,7 @@
         <v>1023.16</v>
       </c>
     </row>
-    <row r="292" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>881</v>
       </c>
@@ -22738,7 +22738,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="293" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>881</v>
       </c>
@@ -22758,7 +22758,7 @@
         <v>220.28399999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>881</v>
       </c>
@@ -22784,7 +22784,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="295" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>881</v>
       </c>
@@ -22807,7 +22807,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="296" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>881</v>
       </c>
@@ -22938,7 +22938,7 @@
         <v>953.15</v>
       </c>
     </row>
-    <row r="297" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>881</v>
       </c>
@@ -22964,7 +22964,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="298" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>881</v>
       </c>
@@ -23089,7 +23089,7 @@
         <v>1023.15</v>
       </c>
     </row>
-    <row r="299" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>881</v>
       </c>
@@ -23220,7 +23220,7 @@
         <v>1153.1500000000001</v>
       </c>
     </row>
-    <row r="300" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>881</v>
       </c>
@@ -23240,7 +23240,7 @@
         <v>303.19940000000003</v>
       </c>
     </row>
-    <row r="301" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>881</v>
       </c>
@@ -23263,7 +23263,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="302" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
         <v>881</v>
       </c>
@@ -23286,7 +23286,7 @@
         <v>0.56999999999999995</v>
       </c>
     </row>
-    <row r="303" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>881</v>
       </c>
@@ -23306,7 +23306,7 @@
         <v>253.8365</v>
       </c>
     </row>
-    <row r="304" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>881</v>
       </c>
@@ -23326,7 +23326,7 @@
         <v>237.38220000000001</v>
       </c>
     </row>
-    <row r="305" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>881</v>
       </c>
@@ -23349,7 +23349,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="306" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>881</v>
       </c>
@@ -23372,7 +23372,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="307" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>881</v>
       </c>
@@ -23392,7 +23392,7 @@
         <v>204.4736</v>
       </c>
     </row>
-    <row r="308" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>881</v>
       </c>
@@ -23415,7 +23415,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="309" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>239</v>
       </c>
@@ -23441,7 +23441,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="310" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>239</v>
       </c>
@@ -23557,7 +23557,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="311" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>239</v>
       </c>
@@ -23673,7 +23673,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="312" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>239</v>
       </c>
@@ -23783,7 +23783,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="313" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>947</v>
       </c>
@@ -23815,7 +23815,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="314" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>947</v>
       </c>
@@ -23934,7 +23934,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="315" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>953</v>
       </c>
@@ -24053,7 +24053,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="316" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>953</v>
       </c>
@@ -24178,7 +24178,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="317" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>953</v>
       </c>
@@ -24303,7 +24303,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="318" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>953</v>
       </c>
@@ -24419,7 +24419,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="319" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>953</v>
       </c>
@@ -24532,7 +24532,7 @@
         <v>9160</v>
       </c>
     </row>
-    <row r="320" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
         <v>953</v>
       </c>
@@ -24558,7 +24558,7 @@
         <v>9300</v>
       </c>
     </row>
-    <row r="321" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
         <v>953</v>
       </c>
@@ -24683,7 +24683,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="322" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
         <v>975</v>
       </c>
@@ -24715,7 +24715,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="323" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>975</v>
       </c>
@@ -24738,7 +24738,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="324" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>239</v>
       </c>
@@ -24848,7 +24848,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="325" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>239</v>
       </c>
@@ -24877,7 +24877,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="326" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>239</v>
       </c>
@@ -24906,7 +24906,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="327" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>989</v>
       </c>
@@ -24932,7 +24932,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="328" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>989</v>
       </c>
@@ -24964,7 +24964,7 @@
         <v>11.45</v>
       </c>
     </row>
-    <row r="329" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>989</v>
       </c>
@@ -24996,7 +24996,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="330" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>999</v>
       </c>
@@ -25124,7 +25124,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="331" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>239</v>
       </c>
@@ -25237,7 +25237,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="332" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>239</v>
       </c>
@@ -25350,7 +25350,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="333" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>239</v>
       </c>
@@ -25373,7 +25373,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="334" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>1011</v>
       </c>
@@ -25396,7 +25396,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="335" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>1011</v>
       </c>
@@ -25428,7 +25428,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="336" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>1011</v>
       </c>
@@ -25451,7 +25451,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
         <v>1011</v>
       </c>
@@ -25483,7 +25483,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="338" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
         <v>1011</v>
       </c>
@@ -25518,7 +25518,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="339" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>1011</v>
       </c>
@@ -25556,7 +25556,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="340" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>1011</v>
       </c>
@@ -25594,7 +25594,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="341" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>1011</v>
       </c>
@@ -25632,7 +25632,7 @@
         <v>15.4</v>
       </c>
     </row>
-    <row r="342" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>1011</v>
       </c>
@@ -25661,7 +25661,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="343" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>1011</v>
       </c>
@@ -25702,7 +25702,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="344" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>1011</v>
       </c>
@@ -25803,7 +25803,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="345" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>1042</v>
       </c>
@@ -25829,7 +25829,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="346" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>1042</v>
       </c>
@@ -25861,7 +25861,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="347" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>1042</v>
       </c>
@@ -25893,7 +25893,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="348" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>1042</v>
       </c>
@@ -25931,7 +25931,7 @@
         <v>1087.1500000000001</v>
       </c>
     </row>
-    <row r="349" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>1042</v>
       </c>
@@ -25963,7 +25963,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="350" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>1058</v>
       </c>
@@ -25986,7 +25986,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="351" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>1058</v>
       </c>
@@ -26018,7 +26018,7 @@
         <v>43.7</v>
       </c>
     </row>
-    <row r="352" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:46" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>146</v>
       </c>
@@ -26149,7 +26149,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="353" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>239</v>
       </c>
@@ -26184,7 +26184,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="354" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>239</v>
       </c>
@@ -26225,7 +26225,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="355" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
         <v>239</v>
       </c>
@@ -26263,7 +26263,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="356" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
         <v>239</v>
       </c>
@@ -26304,7 +26304,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="357" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>239</v>
       </c>
@@ -26345,7 +26345,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="358" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>254</v>
       </c>
@@ -26470,7 +26470,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="359" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>999</v>
       </c>
@@ -26601,7 +26601,7 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="360" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>239</v>
       </c>
@@ -26642,7 +26642,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="361" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>254</v>
       </c>
@@ -26761,7 +26761,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="362" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>239</v>
       </c>
@@ -26796,7 +26796,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="363" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>254</v>
       </c>
@@ -26918,7 +26918,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="364" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B364" t="s">
         <v>1103</v>
       </c>
@@ -26932,7 +26932,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="365" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B365" t="s">
         <v>1104</v>
       </c>
@@ -26946,7 +26946,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="366" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:47" x14ac:dyDescent="0.35">
       <c r="B366" t="s">
         <v>1105</v>
       </c>
@@ -26960,7 +26960,7 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="367" spans="1:47" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
         <v>239</v>
       </c>
@@ -26999,57 +26999,57 @@
       <selection activeCell="I270" sqref="I270"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.26953125" customWidth="1"/>
     <col min="7" max="10" width="5" customWidth="1"/>
-    <col min="11" max="11" width="3.7109375" customWidth="1"/>
-    <col min="12" max="12" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="3.7265625" customWidth="1"/>
+    <col min="12" max="12" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="21.81640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="24" max="25" width="29" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="42.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="42.1796875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="48" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="29" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="15" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="53.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="53.81640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="14.81640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="48" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="29" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="15" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="8" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="30.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="30.26953125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="15.26953125" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="17" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="24.28515625" bestFit="1" customWidth="1"/>
-    <col min="50" max="51" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="24.26953125" bestFit="1" customWidth="1"/>
+    <col min="50" max="51" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>107</v>
       </c>
@@ -27063,7 +27063,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>113</v>
       </c>
@@ -27101,7 +27101,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="M3" t="s">
         <v>132</v>
       </c>
@@ -27121,7 +27121,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>146</v>
       </c>
@@ -27175,7 +27175,7 @@
         <v>1.1421000000000001E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>146</v>
       </c>
@@ -27214,7 +27214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -27268,7 +27268,7 @@
         <v>1.72E-7</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>146</v>
       </c>
@@ -27322,7 +27322,7 @@
         <v>6.6569999999999997E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>146</v>
       </c>
@@ -27376,7 +27376,7 @@
         <v>2.2889999999999999E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>146</v>
       </c>
@@ -27430,7 +27430,7 @@
         <v>7.6320000000000001E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>146</v>
       </c>
@@ -27484,7 +27484,7 @@
         <v>8.9529999999999995E-8</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -27532,7 +27532,7 @@
         <v>466.7</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>146</v>
       </c>
@@ -27571,7 +27571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>146</v>
       </c>
@@ -27610,7 +27610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>146</v>
       </c>
@@ -27649,7 +27649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B15" t="s">
         <v>188</v>
       </c>
@@ -27700,7 +27700,7 @@
         <v>7.3578280999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
         <v>191</v>
       </c>
@@ -27751,7 +27751,7 @@
         <v>5.0335489000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>195</v>
       </c>
@@ -27802,7 +27802,7 @@
         <v>6.0912230999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>200</v>
       </c>
@@ -27853,7 +27853,7 @@
         <v>0.61165480000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>203</v>
       </c>
@@ -27904,7 +27904,7 @@
         <v>43.368139999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>206</v>
       </c>
@@ -27955,7 +27955,7 @@
         <v>12.519781999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
         <v>215</v>
       </c>
@@ -28006,7 +28006,7 @@
         <v>0.14627760000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
         <v>218</v>
       </c>
@@ -28057,7 +28057,7 @@
         <v>68.890888000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
         <v>221</v>
       </c>
@@ -28108,7 +28108,7 @@
         <v>517.96433999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>224</v>
       </c>
@@ -28159,7 +28159,7 @@
         <v>87.837439000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
         <v>227</v>
       </c>
@@ -28210,7 +28210,7 @@
         <v>1.6602201999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
         <v>230</v>
       </c>
@@ -28261,7 +28261,7 @@
         <v>73.533690000000007</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
         <v>233</v>
       </c>
@@ -28312,7 +28312,7 @@
         <v>0.1219619</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
         <v>236</v>
       </c>
@@ -28363,7 +28363,7 @@
         <v>7.4720000000000002E-7</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>254</v>
       </c>
@@ -28417,7 +28417,7 @@
         <v>31.507559000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>254</v>
       </c>
@@ -28471,7 +28471,7 @@
         <v>0.21865490000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>254</v>
       </c>
@@ -28510,7 +28510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>254</v>
       </c>
@@ -28549,7 +28549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>254</v>
       </c>
@@ -28588,7 +28588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>254</v>
       </c>
@@ -28627,7 +28627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>282</v>
       </c>
@@ -28681,7 +28681,7 @@
         <v>5.8041000000000002E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>282</v>
       </c>
@@ -28735,7 +28735,7 @@
         <v>4.7999899999999998E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>282</v>
       </c>
@@ -28786,7 +28786,7 @@
         <v>5.8041000000000002E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>282</v>
       </c>
@@ -28840,7 +28840,7 @@
         <v>2.9140459999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>282</v>
       </c>
@@ -28879,7 +28879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>282</v>
       </c>
@@ -28918,7 +28918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>282</v>
       </c>
@@ -28972,7 +28972,7 @@
         <v>0.38956380000000002</v>
       </c>
     </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>282</v>
       </c>
@@ -29011,7 +29011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>282</v>
       </c>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>282</v>
       </c>
@@ -29104,7 +29104,7 @@
         <v>1.0749454000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>282</v>
       </c>
@@ -29143,7 +29143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>282</v>
       </c>
@@ -29197,7 +29197,7 @@
         <v>65.354512999999997</v>
       </c>
     </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>282</v>
       </c>
@@ -29236,7 +29236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>282</v>
       </c>
@@ -29290,7 +29290,7 @@
         <v>6.4138600000000004E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>282</v>
       </c>
@@ -29344,7 +29344,7 @@
         <v>5.5123000000000004E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>282</v>
       </c>
@@ -29383,7 +29383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>282</v>
       </c>
@@ -29422,7 +29422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>282</v>
       </c>
@@ -29476,7 +29476,7 @@
         <v>7.3315999999999997E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>282</v>
       </c>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>282</v>
       </c>
@@ -29554,7 +29554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>282</v>
       </c>
@@ -29593,7 +29593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>282</v>
       </c>
@@ -29641,7 +29641,7 @@
         <v>412.44</v>
       </c>
     </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>282</v>
       </c>
@@ -29695,7 +29695,7 @@
         <v>0.16032679999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>282</v>
       </c>
@@ -29734,7 +29734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>282</v>
       </c>
@@ -29788,7 +29788,7 @@
         <v>7.0804199999999998E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>282</v>
       </c>
@@ -29827,7 +29827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>282</v>
       </c>
@@ -29866,7 +29866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>282</v>
       </c>
@@ -29905,7 +29905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>282</v>
       </c>
@@ -29959,7 +29959,7 @@
         <v>1.25148E-2</v>
       </c>
     </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>282</v>
       </c>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>282</v>
       </c>
@@ -30037,7 +30037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>282</v>
       </c>
@@ -30076,7 +30076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>282</v>
       </c>
@@ -30115,7 +30115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>282</v>
       </c>
@@ -30154,7 +30154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>282</v>
       </c>
@@ -30193,7 +30193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>282</v>
       </c>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>282</v>
       </c>
@@ -30271,7 +30271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>282</v>
       </c>
@@ -30310,7 +30310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>282</v>
       </c>
@@ -30349,7 +30349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>282</v>
       </c>
@@ -30388,7 +30388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>282</v>
       </c>
@@ -30427,7 +30427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>282</v>
       </c>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>282</v>
       </c>
@@ -30505,7 +30505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>282</v>
       </c>
@@ -30544,7 +30544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>282</v>
       </c>
@@ -30598,7 +30598,7 @@
         <v>2.4784182000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>511</v>
       </c>
@@ -30646,7 +30646,7 @@
         <v>451.48</v>
       </c>
     </row>
-    <row r="81" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>511</v>
       </c>
@@ -30700,7 +30700,7 @@
         <v>3.7950000000000001E-4</v>
       </c>
     </row>
-    <row r="82" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>511</v>
       </c>
@@ -30739,7 +30739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>511</v>
       </c>
@@ -30778,7 +30778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>511</v>
       </c>
@@ -30817,7 +30817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>511</v>
       </c>
@@ -30856,7 +30856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>511</v>
       </c>
@@ -30895,7 +30895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>511</v>
       </c>
@@ -30934,7 +30934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>511</v>
       </c>
@@ -30988,7 +30988,7 @@
         <v>4.2021000000000003E-3</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>511</v>
       </c>
@@ -31027,7 +31027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>511</v>
       </c>
@@ -31066,7 +31066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>511</v>
       </c>
@@ -31114,7 +31114,7 @@
         <v>395.42500000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>511</v>
       </c>
@@ -31153,7 +31153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>511</v>
       </c>
@@ -31192,7 +31192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>511</v>
       </c>
@@ -31231,7 +31231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>511</v>
       </c>
@@ -31270,7 +31270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>511</v>
       </c>
@@ -31309,7 +31309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>511</v>
       </c>
@@ -31348,7 +31348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>511</v>
       </c>
@@ -31387,7 +31387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>511</v>
       </c>
@@ -31426,7 +31426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>511</v>
       </c>
@@ -31465,7 +31465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>511</v>
       </c>
@@ -31504,7 +31504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>511</v>
       </c>
@@ -31543,7 +31543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>511</v>
       </c>
@@ -31582,7 +31582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>511</v>
       </c>
@@ -31621,7 +31621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>511</v>
       </c>
@@ -31675,7 +31675,7 @@
         <v>6.4926999999999997E-3</v>
       </c>
     </row>
-    <row r="106" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>511</v>
       </c>
@@ -31714,7 +31714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>511</v>
       </c>
@@ -31753,7 +31753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>511</v>
       </c>
@@ -31807,7 +31807,7 @@
         <v>3.6327E-3</v>
       </c>
     </row>
-    <row r="109" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>511</v>
       </c>
@@ -31846,7 +31846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>511</v>
       </c>
@@ -31885,7 +31885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>511</v>
       </c>
@@ -31924,7 +31924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>511</v>
       </c>
@@ -31963,7 +31963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>511</v>
       </c>
@@ -32002,7 +32002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>511</v>
       </c>
@@ -32041,7 +32041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>511</v>
       </c>
@@ -32080,7 +32080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>511</v>
       </c>
@@ -32119,7 +32119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>511</v>
       </c>
@@ -32158,7 +32158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>511</v>
       </c>
@@ -32197,7 +32197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>511</v>
       </c>
@@ -32236,7 +32236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>511</v>
       </c>
@@ -32275,7 +32275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>511</v>
       </c>
@@ -32314,7 +32314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>511</v>
       </c>
@@ -32353,7 +32353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>511</v>
       </c>
@@ -32392,7 +32392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>511</v>
       </c>
@@ -32431,7 +32431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>511</v>
       </c>
@@ -32470,7 +32470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>511</v>
       </c>
@@ -32509,7 +32509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>511</v>
       </c>
@@ -32548,7 +32548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>511</v>
       </c>
@@ -32587,7 +32587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>511</v>
       </c>
@@ -32626,7 +32626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>511</v>
       </c>
@@ -32665,7 +32665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>511</v>
       </c>
@@ -32704,7 +32704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>511</v>
       </c>
@@ -32743,7 +32743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>511</v>
       </c>
@@ -32782,7 +32782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>511</v>
       </c>
@@ -32821,7 +32821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>511</v>
       </c>
@@ -32860,7 +32860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>511</v>
       </c>
@@ -32899,7 +32899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>511</v>
       </c>
@@ -32938,7 +32938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>511</v>
       </c>
@@ -32977,7 +32977,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>511</v>
       </c>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>511</v>
       </c>
@@ -33055,7 +33055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>511</v>
       </c>
@@ -33094,7 +33094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>511</v>
       </c>
@@ -33133,7 +33133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>511</v>
       </c>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>511</v>
       </c>
@@ -33211,7 +33211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>511</v>
       </c>
@@ -33250,7 +33250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>511</v>
       </c>
@@ -33289,7 +33289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>511</v>
       </c>
@@ -33328,7 +33328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>511</v>
       </c>
@@ -33367,7 +33367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>511</v>
       </c>
@@ -33406,7 +33406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>511</v>
       </c>
@@ -33445,7 +33445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>511</v>
       </c>
@@ -33484,7 +33484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>511</v>
       </c>
@@ -33523,7 +33523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>511</v>
       </c>
@@ -33562,7 +33562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>511</v>
       </c>
@@ -33601,7 +33601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>511</v>
       </c>
@@ -33640,7 +33640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>511</v>
       </c>
@@ -33679,7 +33679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>511</v>
       </c>
@@ -33718,7 +33718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>511</v>
       </c>
@@ -33757,7 +33757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>511</v>
       </c>
@@ -33796,7 +33796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>511</v>
       </c>
@@ -33835,7 +33835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>511</v>
       </c>
@@ -33874,7 +33874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>511</v>
       </c>
@@ -33913,7 +33913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>511</v>
       </c>
@@ -33952,7 +33952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>511</v>
       </c>
@@ -33991,7 +33991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>511</v>
       </c>
@@ -34030,7 +34030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>511</v>
       </c>
@@ -34069,7 +34069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>511</v>
       </c>
@@ -34108,7 +34108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>511</v>
       </c>
@@ -34147,7 +34147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>511</v>
       </c>
@@ -34186,7 +34186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>511</v>
       </c>
@@ -34225,7 +34225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>511</v>
       </c>
@@ -34264,7 +34264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>511</v>
       </c>
@@ -34303,7 +34303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>511</v>
       </c>
@@ -34342,7 +34342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>511</v>
       </c>
@@ -34381,7 +34381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>511</v>
       </c>
@@ -34420,7 +34420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>511</v>
       </c>
@@ -34459,7 +34459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>511</v>
       </c>
@@ -34498,7 +34498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>511</v>
       </c>
@@ -34537,7 +34537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>511</v>
       </c>
@@ -34576,7 +34576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>511</v>
       </c>
@@ -34615,7 +34615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>511</v>
       </c>
@@ -34654,7 +34654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>511</v>
       </c>
@@ -34693,7 +34693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>511</v>
       </c>
@@ -34732,7 +34732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>511</v>
       </c>
@@ -34771,7 +34771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>511</v>
       </c>
@@ -34810,7 +34810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>511</v>
       </c>
@@ -34849,7 +34849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>511</v>
       </c>
@@ -34888,7 +34888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>511</v>
       </c>
@@ -34927,7 +34927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>511</v>
       </c>
@@ -34966,7 +34966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>511</v>
       </c>
@@ -35005,7 +35005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>511</v>
       </c>
@@ -35044,7 +35044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>511</v>
       </c>
@@ -35083,7 +35083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>511</v>
       </c>
@@ -35122,7 +35122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>511</v>
       </c>
@@ -35161,7 +35161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>511</v>
       </c>
@@ -35200,7 +35200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>511</v>
       </c>
@@ -35239,7 +35239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>511</v>
       </c>
@@ -35278,7 +35278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>511</v>
       </c>
@@ -35317,7 +35317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>511</v>
       </c>
@@ -35356,7 +35356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>511</v>
       </c>
@@ -35395,7 +35395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>511</v>
       </c>
@@ -35434,7 +35434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>511</v>
       </c>
@@ -35473,7 +35473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>511</v>
       </c>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>511</v>
       </c>
@@ -35551,7 +35551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>511</v>
       </c>
@@ -35590,7 +35590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>511</v>
       </c>
@@ -35629,7 +35629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>511</v>
       </c>
@@ -35668,7 +35668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>511</v>
       </c>
@@ -35707,7 +35707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>511</v>
       </c>
@@ -35746,7 +35746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>511</v>
       </c>
@@ -35785,7 +35785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>511</v>
       </c>
@@ -35824,7 +35824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>511</v>
       </c>
@@ -35863,7 +35863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>881</v>
       </c>
@@ -35917,7 +35917,7 @@
         <v>6.5100999999999996E-3</v>
       </c>
     </row>
-    <row r="214" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>881</v>
       </c>
@@ -35971,7 +35971,7 @@
         <v>2.4259999999999999E-4</v>
       </c>
     </row>
-    <row r="215" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>881</v>
       </c>
@@ -36025,7 +36025,7 @@
         <v>3.2890000000000003E-4</v>
       </c>
     </row>
-    <row r="216" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>881</v>
       </c>
@@ -36064,7 +36064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>881</v>
       </c>
@@ -36103,7 +36103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>881</v>
       </c>
@@ -36142,7 +36142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>881</v>
       </c>
@@ -36196,7 +36196,7 @@
         <v>1.8714275</v>
       </c>
     </row>
-    <row r="220" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>881</v>
       </c>
@@ -36235,7 +36235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>881</v>
       </c>
@@ -36283,7 +36283,7 @@
         <v>418.83</v>
       </c>
     </row>
-    <row r="222" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>881</v>
       </c>
@@ -36337,7 +36337,7 @@
         <v>2.2138233999999999</v>
       </c>
     </row>
-    <row r="223" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>881</v>
       </c>
@@ -36376,7 +36376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>881</v>
       </c>
@@ -36415,7 +36415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>881</v>
       </c>
@@ -36454,7 +36454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>881</v>
       </c>
@@ -36493,7 +36493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>881</v>
       </c>
@@ -36532,7 +36532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>881</v>
       </c>
@@ -36571,7 +36571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>881</v>
       </c>
@@ -36610,7 +36610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>881</v>
       </c>
@@ -36649,7 +36649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>881</v>
       </c>
@@ -36688,7 +36688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>947</v>
       </c>
@@ -36727,7 +36727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>947</v>
       </c>
@@ -36781,7 +36781,7 @@
         <v>9.357E-5</v>
       </c>
     </row>
-    <row r="234" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>953</v>
       </c>
@@ -36829,7 +36829,7 @@
         <v>227.51</v>
       </c>
     </row>
-    <row r="235" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>953</v>
       </c>
@@ -36883,7 +36883,7 @@
         <v>26.083734</v>
       </c>
     </row>
-    <row r="236" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>953</v>
       </c>
@@ -36937,7 +36937,7 @@
         <v>2.0186000000000002E-3</v>
       </c>
     </row>
-    <row r="237" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>953</v>
       </c>
@@ -36985,7 +36985,7 @@
         <v>386.32600000000002</v>
       </c>
     </row>
-    <row r="238" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>953</v>
       </c>
@@ -37033,7 +37033,7 @@
         <v>420.55500000000001</v>
       </c>
     </row>
-    <row r="239" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>953</v>
       </c>
@@ -37072,7 +37072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>953</v>
       </c>
@@ -37126,7 +37126,7 @@
         <v>19.461057</v>
       </c>
     </row>
-    <row r="241" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>975</v>
       </c>
@@ -37165,7 +37165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>975</v>
       </c>
@@ -37204,7 +37204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>989</v>
       </c>
@@ -37243,7 +37243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>989</v>
       </c>
@@ -37282,7 +37282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>989</v>
       </c>
@@ -37321,7 +37321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>999</v>
       </c>
@@ -37375,7 +37375,7 @@
         <v>0.25026559999999998</v>
       </c>
     </row>
-    <row r="247" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>1011</v>
       </c>
@@ -37414,7 +37414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>1011</v>
       </c>
@@ -37453,7 +37453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>1011</v>
       </c>
@@ -37492,7 +37492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>1011</v>
       </c>
@@ -37531,7 +37531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>1011</v>
       </c>
@@ -37570,7 +37570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>1011</v>
       </c>
@@ -37609,7 +37609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>1011</v>
       </c>
@@ -37648,7 +37648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>1011</v>
       </c>
@@ -37687,7 +37687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>1011</v>
       </c>
@@ -37726,7 +37726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>1011</v>
       </c>
@@ -37765,7 +37765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>1011</v>
       </c>
@@ -37816,7 +37816,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="258" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>1042</v>
       </c>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>1042</v>
       </c>
@@ -37894,7 +37894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>1042</v>
       </c>
@@ -37933,7 +37933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>1042</v>
       </c>
@@ -37972,7 +37972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>1042</v>
       </c>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>1058</v>
       </c>
@@ -38050,7 +38050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>1058</v>
       </c>
@@ -38089,7 +38089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>146</v>
       </c>
@@ -38143,7 +38143,7 @@
         <v>11.696064</v>
       </c>
     </row>
-    <row r="266" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>254</v>
       </c>
@@ -38197,7 +38197,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="267" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>999</v>
       </c>
@@ -38251,7 +38251,7 @@
         <v>35.159999999999997</v>
       </c>
     </row>
-    <row r="268" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>254</v>
       </c>
@@ -38305,7 +38305,7 @@
         <v>11.942009430000001</v>
       </c>
     </row>
-    <row r="269" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>254</v>
       </c>
@@ -38365,21 +38365,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100AF3971B7688FAA44A254570DF48F861B" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c6cc39db5149462d9af29e9ad7e8ba52">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="93d5ff02-6a5f-488a-bb38-49d5c6520981" xmlns:ns4="8fb75aa8-72e9-4153-90d7-2a82d4f9cd12" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e7f4c4503ae457b0ae9175da2b1a42f7" ns3:_="" ns4:_="">
     <xsd:import namespace="93d5ff02-6a5f-488a-bb38-49d5c6520981"/>
@@ -38588,10 +38573,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{689EE8A5-E08C-448C-85BA-3CE2B0710EAF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36FE9FE5-716F-48D0-B973-E42F5CB28891}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="93d5ff02-6a5f-488a-bb38-49d5c6520981"/>
+    <ds:schemaRef ds:uri="8fb75aa8-72e9-4153-90d7-2a82d4f9cd12"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -38614,20 +38625,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36FE9FE5-716F-48D0-B973-E42F5CB28891}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{689EE8A5-E08C-448C-85BA-3CE2B0710EAF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="93d5ff02-6a5f-488a-bb38-49d5c6520981"/>
-    <ds:schemaRef ds:uri="8fb75aa8-72e9-4153-90d7-2a82d4f9cd12"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>